--- a/shed.xlsx
+++ b/shed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schedule-HTML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F802B75-E3A3-4ABF-8271-C8AEB8A77623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940272A6-6F11-4896-B52B-C738FBDDDA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{66AF5A78-51EE-46D6-9522-C9BCE15E5E02}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
   <si>
     <t>Физ. Культура   б/з  Коровина Ю.Ю.</t>
   </si>
@@ -54,19 +54,10 @@
     <t>ИТ   201 Селезнева</t>
   </si>
   <si>
-    <t>Осн. Алг.            313 Лагодич Л.И</t>
-  </si>
-  <si>
-    <t>Арх. Аппар. Ср-в.            106 Сташицкая Е.А</t>
-  </si>
-  <si>
     <t>Псих. Общ.        118 Кокорева С.Г.</t>
   </si>
   <si>
     <t>История             216 Говорина Ю.В.</t>
-  </si>
-  <si>
-    <t>КС                      301            Усанина Н.Ю</t>
   </si>
   <si>
     <t>Осн. Фил.          212 Бурнина А.В.</t>
@@ -165,12 +156,24 @@
       <t xml:space="preserve"> 293 Шевчук И.Н.</t>
     </r>
   </si>
+  <si>
+    <t>КС                      301            Усанина Н.Ю.</t>
+  </si>
+  <si>
+    <t>Осн. Алг.            313 Лагодич Л.И.</t>
+  </si>
+  <si>
+    <t>Арх. Аппар. Ср-в.            106 Сташицкая Е.А.</t>
+  </si>
+  <si>
+    <t>Нет пар</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +204,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -265,16 +275,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -287,6 +294,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -607,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CFAAF7-3574-4859-9D2D-5925234EBAE9}">
-  <dimension ref="A2:I11"/>
+  <dimension ref="A2:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I9"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -630,70 +643,70 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="4"/>
+      <c r="H3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="4"/>
+      <c r="H4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -708,82 +721,82 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="4"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
@@ -804,6 +817,11 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/shed.xlsx
+++ b/shed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schedule-HTML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940272A6-6F11-4896-B52B-C738FBDDDA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E83C561-25D5-4746-8715-867F4FC336EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{66AF5A78-51EE-46D6-9522-C9BCE15E5E02}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{66AF5A78-51EE-46D6-9522-C9BCE15E5E02}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -295,11 +295,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -622,33 +622,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CFAAF7-3574-4859-9D2D-5925234EBAE9}">
   <dimension ref="A2:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="3" width="18.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="3" width="18.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="18.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="8.33203125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="18.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="8"/>
       <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
@@ -662,7 +662,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="3" t="s">
         <v>7</v>
@@ -670,42 +670,42 @@
       <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="8"/>
       <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="8"/>
       <c r="F4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="3" t="s">
         <v>3</v>
@@ -720,7 +720,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -730,17 +730,17 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="3" t="s">
         <v>16</v>
       </c>
@@ -754,51 +754,51 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -808,7 +808,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -818,23 +818,23 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
+    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
